--- a/argot/helpers/location_facet_hierarchy.xlsx
+++ b/argot/helpers/location_facet_hierarchy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kspurgin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\data-documentation\argot\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="736">
   <si>
     <t>Duke</t>
   </si>
@@ -1103,9 +1103,6 @@
     <t>UNC Chapel Hill &gt; Odum Institute Library</t>
   </si>
   <si>
-    <t>UNC Chapel Hill &gt; Carolina Population Center</t>
-  </si>
-  <si>
     <t>UNC Chapel Hill &gt; Global Initiatives K-12 Library</t>
   </si>
   <si>
@@ -1154,9 +1151,6 @@
     <t>UNC Chapel Hill &gt; LGBTQ Center Library</t>
   </si>
   <si>
-    <t>UNC Chapel Hill &gt; Carolina Women’s Center Collection</t>
-  </si>
-  <si>
     <t>NCCU &gt; Law</t>
   </si>
   <si>
@@ -2226,6 +2220,18 @@
   </si>
   <si>
     <t>ygdh</t>
+  </si>
+  <si>
+    <t>UNC Chapel Hill &gt; Carolina Population Center Library</t>
+  </si>
+  <si>
+    <t>Carolina Population Center Library</t>
+  </si>
+  <si>
+    <t>UNC Chapel Hill &gt; Carolina Women's Center Collection</t>
+  </si>
+  <si>
+    <t>Carolina Women's Center Collection</t>
   </si>
 </sst>
 </file>
@@ -2390,31 +2396,10 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2575,7 +2560,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -2584,9 +2568,21 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
-          <bgColor auto="1"/>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2662,6 +2658,16 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2676,27 +2682,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="locdata" displayName="locdata" ref="A1:L198" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:L198"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="locdata" displayName="locdata" ref="A1:L198" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:L198">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="unc"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A144:L198">
+    <sortCondition ref="C1:C198"/>
+  </sortState>
   <tableColumns count="12">
-    <tableColumn id="2" name="top-level inst" dataDxfId="2"/>
-    <tableColumn id="5" name="hierarchy level code" dataDxfId="1"/>
-    <tableColumn id="6" name="hierarchy level label" dataDxfId="12"/>
-    <tableColumn id="7" name="argot location_facet value" dataDxfId="11">
-      <calculatedColumnFormula>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</calculatedColumnFormula>
+    <tableColumn id="2" name="top-level inst" dataDxfId="11"/>
+    <tableColumn id="5" name="hierarchy level code" dataDxfId="10"/>
+    <tableColumn id="6" name="hierarchy level label" dataDxfId="9"/>
+    <tableColumn id="7" name="argot location_facet value" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="full hierarchy display" dataDxfId="10"/>
-    <tableColumn id="17" name="Library/shelving location synonyms" dataDxfId="9"/>
-    <tableColumn id="8" name="L1" dataDxfId="8"/>
-    <tableColumn id="9" name="L2" dataDxfId="7"/>
-    <tableColumn id="10" name="L3" dataDxfId="6"/>
-    <tableColumn id="11" name="C1" dataDxfId="5">
+    <tableColumn id="1" name="full hierarchy display" dataDxfId="8"/>
+    <tableColumn id="17" name="Library/shelving location synonyms" dataDxfId="7"/>
+    <tableColumn id="8" name="L1" dataDxfId="6"/>
+    <tableColumn id="9" name="L2" dataDxfId="5"/>
+    <tableColumn id="10" name="L3" dataDxfId="4"/>
+    <tableColumn id="11" name="C1" dataDxfId="3">
       <calculatedColumnFormula>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="C2" dataDxfId="4">
+    <tableColumn id="12" name="C2" dataDxfId="2">
       <calculatedColumnFormula>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="C3" dataDxfId="3">
+    <tableColumn id="13" name="C3" dataDxfId="1">
       <calculatedColumnFormula>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2969,8 +2984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="F198" sqref="F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2986,54 +3001,54 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
         <v>duke</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -3060,19 +3075,19 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukebios</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukebios</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>315</v>
@@ -3100,19 +3115,19 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukedivy</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukedivy</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>318</v>
@@ -3140,19 +3155,19 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukedivy;dukedivybaer</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukedivy:dukedivybaer</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>320</v>
@@ -3182,19 +3197,19 @@
         <v>dukedivybaer</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukedivy;dukedivylocs</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukedivy:dukedivylocs</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>319</v>
@@ -3224,19 +3239,19 @@
         <v>dukedivylocs</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukedivy;dukedivymims</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukedivy:dukedivymims</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>321</v>
@@ -3266,19 +3281,19 @@
         <v>dukedivymims</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukedivy;dukedivyrees</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukedivy:dukedivyrees</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>323</v>
@@ -3308,19 +3323,19 @@
         <v>dukedivyrees</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukedivy;dukedivythes</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukedivy:dukedivythes</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>322</v>
@@ -3350,19 +3365,19 @@
         <v>dukedivythes</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeduke</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeduke</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>336</v>
@@ -3390,19 +3405,19 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeduky</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeduky</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>337</v>
@@ -3430,19 +3445,19 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D12" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukedrh</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukedrh</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>335</v>
@@ -3454,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="6" t="str">
@@ -3470,19 +3485,19 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeford</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeford</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>326</v>
@@ -3510,19 +3525,19 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeford;dukefordauks</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeford:dukefordauks</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>327</v>
@@ -3552,19 +3567,19 @@
         <v>dukefordauks</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeford;dukefordcaon</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeford:dukefordcaon</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>332</v>
@@ -3594,19 +3609,19 @@
         <v>dukefordcaon</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeford;dukeforddvon</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeford:dukeforddvon</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>328</v>
@@ -3636,19 +3651,19 @@
         <v>dukeforddvon</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeford;dukefordlang</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeford:dukefordlang</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>330</v>
@@ -3678,19 +3693,19 @@
         <v>dukefordlang</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeford;dukefordrece</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeford:dukefordrece</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>333</v>
@@ -3720,19 +3735,19 @@
         <v>dukefordrece</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeford;dukefordrees</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeford:dukefordrees</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>329</v>
@@ -3762,19 +3777,19 @@
         <v>dukefordrees</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D20" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeford;duketp</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeford:duketp</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>331</v>
@@ -3789,7 +3804,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J20" s="6" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
@@ -3804,19 +3819,19 @@
         <v>duketp</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D21" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukell</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukell</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>334</v>
@@ -3828,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="6" t="str">
@@ -3844,19 +3859,19 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukelaww</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukelaww</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>294</v>
@@ -3884,22 +3899,22 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D23" s="6" t="str">
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukelaww:dukelawax</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="D23" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukelaww;dukelawax</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>649</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>178</v>
@@ -3911,7 +3926,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J23" s="6" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
@@ -3926,19 +3941,19 @@
         <v>dukelawax</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukelaww;dukelawwchon</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukelaww:dukelawwchon</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>295</v>
@@ -3968,19 +3983,19 @@
         <v>dukelawwchon</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukelaww;dukelawwcoon</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukelaww:dukelawwcoon</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>296</v>
@@ -4010,19 +4025,19 @@
         <v>dukelawwcoon</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukelaww;dukelawwemon</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukelaww:dukelawwemon</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>298</v>
@@ -4052,19 +4067,19 @@
         <v>dukelawwemon</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukelaww;dukelawwlats</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukelaww:dukelawwlats</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>297</v>
@@ -4094,19 +4109,19 @@
         <v>dukelawwlats</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukelaww;dukelawwlaon</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukelaww:dukelawwlaon</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>299</v>
@@ -4136,25 +4151,25 @@
         <v>dukelawwlaon</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukelaww;dukelawwrece</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukelaww:dukelawwrece</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>300</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>0</v>
@@ -4178,19 +4193,19 @@
         <v>dukelawwrece</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukelaww;dukelawwrees</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukelaww:dukelawwrees</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>301</v>
@@ -4220,19 +4235,19 @@
         <v>dukelawwrees</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukelibr</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukelibr</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>302</v>
@@ -4260,19 +4275,19 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukelily</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukelily</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>309</v>
@@ -4300,19 +4315,19 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukelily;dukelilycure</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukelily:dukelilycure</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>312</v>
@@ -4342,19 +4357,19 @@
         <v>dukelilycure</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukelily;dukelilydeds</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukelily:dukelilydeds</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>310</v>
@@ -4384,19 +4399,19 @@
         <v>dukelilydeds</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukelily;dukelilyrece</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukelily:dukelilyrece</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>313</v>
@@ -4426,25 +4441,25 @@
         <v>dukelilyrece</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukelily;dukelilyrees</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukelily:dukelilyrees</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>311</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>0</v>
@@ -4468,19 +4483,19 @@
         <v>dukelilyrees</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukemarb</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukemarb</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>316</v>
@@ -4508,19 +4523,19 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukemedr</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukemedr</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>304</v>
@@ -4548,25 +4563,25 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukemedr;dukemedrares</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukemedr:dukemedrares</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>306</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>0</v>
@@ -4590,25 +4605,25 @@
         <v>dukemedrares</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukemedr;dukemedrhiry</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukemedr:dukemedrhiry</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>305</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>0</v>
@@ -4632,19 +4647,19 @@
         <v>dukemedrhiry</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukemedr;dukemedrleng</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukemedr:dukemedrleng</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>308</v>
@@ -4674,25 +4689,25 @@
         <v>dukemedrleng</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukemedr;dukemedrrece</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukemedr:dukemedrrece</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>307</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>0</v>
@@ -4716,19 +4731,19 @@
         <v>dukemedrrece</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukemusc</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukemusc</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>303</v>
@@ -4756,19 +4771,19 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukepers</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukepers</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>314</v>
@@ -4796,25 +4811,25 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeperk</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeperk</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>285</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>0</v>
@@ -4836,25 +4851,25 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeperk;dukeperkdace</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeperk:dukeperkdace</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>292</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>0</v>
@@ -4878,19 +4893,19 @@
         <v>dukeperkdace</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D47" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeperk;dukeperkdurs</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeperk:dukeperkdurs</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>286</v>
@@ -4920,19 +4935,19 @@
         <v>dukeperkdurs</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D48" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeperk;dukeperkeaon</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeperk:dukeperkeaon</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>290</v>
@@ -4962,19 +4977,19 @@
         <v>dukeperkeaon</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeperk;dukeperkiaom</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeperk:dukeperkiaom</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>291</v>
@@ -5004,19 +5019,19 @@
         <v>dukeperkiaom</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeperk;dukeperknehy</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeperk:dukeperknehy</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>287</v>
@@ -5046,19 +5061,19 @@
         <v>dukeperknehy</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeperk;dukeperkrece</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeperk:dukeperkrece</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>288</v>
@@ -5088,19 +5103,19 @@
         <v>dukeperkrece</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D52" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeperk;dukeperkrees</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeperk:dukeperkrees</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>289</v>
@@ -5130,19 +5145,19 @@
         <v>dukeperkrees</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D53" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeperk;dukeperkthnk</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeperk:dukeperkthnk</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>293</v>
@@ -5172,19 +5187,19 @@
         <v>dukeperkthnk</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeruby</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeruby</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>324</v>
@@ -5212,19 +5227,19 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukeunis</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukeunis</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>325</v>
@@ -5252,19 +5267,19 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>duke;dukevesc</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>duke:dukevesc</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>317</v>
@@ -5292,25 +5307,25 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
         <v>hsl</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>4</v>
@@ -5330,22 +5345,22 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D58" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>hsl;hsldukr</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>hsl:hsldukr</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>191</v>
@@ -5370,25 +5385,25 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D59" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>hsl;hsldukr;hsldukrares</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>hsl:hsldukr:hsldukrares</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>4</v>
@@ -5412,25 +5427,25 @@
         <v>hsldukrares</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D60" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>hsl;hsldukr;hsldukrhiry</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>hsl:hsldukr:hsldukrhiry</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>4</v>
@@ -5454,22 +5469,22 @@
         <v>hsldukrhiry</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D61" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>hsl;hsldukr;hsldukrleng</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>hsl:hsldukr:hsldukrleng</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>192</v>
@@ -5496,25 +5511,25 @@
         <v>hsldukrleng</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>hsl;hsldukr;hsldukrrece</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>hsl:hsldukr:hsldukrrece</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>4</v>
@@ -5538,22 +5553,22 @@
         <v>hsldukrrece</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>hsl;hslncse</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>hsl:hslncse</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>267</v>
@@ -5578,25 +5593,25 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D64" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>hsl;hsluncy</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>hsl:hsluncy</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>4</v>
@@ -5618,25 +5633,25 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
         <v>law</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>5</v>
@@ -5656,25 +5671,25 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>law;lawdukw</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>law:lawdukw</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>5</v>
@@ -5696,22 +5711,22 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>law;lawdukw;lawdukwchon</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>law:lawdukw:lawdukwchon</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>179</v>
@@ -5738,22 +5753,22 @@
         <v>lawdukwchon</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D68" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>law;lawdukw;lawdukwcoon</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>law:lawdukw:lawdukwcoon</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>180</v>
@@ -5780,22 +5795,22 @@
         <v>lawdukwcoon</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D69" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>law;lawdukw;lawdukwemon</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>law:lawdukw:lawdukwemon</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>182</v>
@@ -5822,22 +5837,22 @@
         <v>lawdukwemon</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D70" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>law;lawdukw;lawdukwlats</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>law:lawdukw:lawdukwlats</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>181</v>
@@ -5864,22 +5879,22 @@
         <v>lawdukwlats</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>law;lawdukw;lawdukwlaon</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>law:lawdukw:lawdukwlaon</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>183</v>
@@ -5906,25 +5921,25 @@
         <v>lawdukwlaon</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D72" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>law;lawdukw;lawdukwrece</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>law:lawdukw:lawdukwrece</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>5</v>
@@ -5948,22 +5963,22 @@
         <v>lawdukwrece</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D73" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>law;lawdukw;lawdukwrees</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>law:lawdukw:lawdukwrees</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>187</v>
@@ -5990,25 +6005,25 @@
         <v>lawdukwrees</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D74" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>law;lawnccw</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>law:lawnccw</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>5</v>
@@ -6030,25 +6045,25 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D75" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>law;lawuncw</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>law:lawuncw</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>5</v>
@@ -6070,25 +6085,25 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
         <v>nccu</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>1</v>
@@ -6108,25 +6123,25 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D77" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccucmcy</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccucmcy</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>1</v>
@@ -6148,25 +6163,25 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;ncculaww</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:ncculaww</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>1</v>
@@ -6188,22 +6203,22 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D79" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;ncculaww;ncculawwbnce</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:ncculaww:ncculawwbnce</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>195</v>
@@ -6230,22 +6245,22 @@
         <v>ncculawwbnce</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D80" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;ncculaww</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:ncculaww</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>197</v>
@@ -6270,22 +6285,22 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D81" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;ncculaww;ncculawwcace</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:ncculaww:ncculawwcace</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>196</v>
@@ -6312,22 +6327,22 @@
         <v>ncculawwcace</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D82" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;ncculaww;ncculawwince</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:ncculaww:ncculawwince</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>198</v>
@@ -6354,22 +6369,22 @@
         <v>ncculawwince</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D83" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;ncculaww;ncculawwlese</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:ncculaww:ncculawwlese</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>199</v>
@@ -6396,22 +6411,22 @@
         <v>ncculawwlese</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D84" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;ncculaww;ncculawwoxes</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:ncculaww:ncculawwoxes</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>200</v>
@@ -6438,22 +6453,22 @@
         <v>ncculawwoxes</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D85" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;ncculaww</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:ncculaww</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>201</v>
@@ -6478,25 +6493,25 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccumusc</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccumusc</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>1</v>
@@ -6518,25 +6533,25 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D87" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccusche</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccusche</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>1</v>
@@ -6558,22 +6573,22 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D88" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccusche;nccuschestks</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccusche:nccuschestks</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>234</v>
@@ -6600,22 +6615,22 @@
         <v>nccuschestks</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D89" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>202</v>
@@ -6640,22 +6655,22 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D90" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedaual</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedaual</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>203</v>
@@ -6682,22 +6697,22 @@
         <v>nccushedaual</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D91" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedas</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedas</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>204</v>
@@ -6709,7 +6724,7 @@
         <v>51</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J91" s="6" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
@@ -6724,22 +6739,22 @@
         <v>nccushedas</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D92" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedaq</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedaq</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>221</v>
@@ -6751,7 +6766,7 @@
         <v>51</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J92" s="6" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
@@ -6766,22 +6781,22 @@
         <v>nccushedaq</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D93" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedbio</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedbio</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>206</v>
@@ -6793,7 +6808,7 @@
         <v>51</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J93" s="6" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
@@ -6808,22 +6823,22 @@
         <v>nccushedbio</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D94" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedboce</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedboce</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>207</v>
@@ -6850,22 +6865,22 @@
         <v>nccushedboce</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D95" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedcang</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedcang</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>208</v>
@@ -6892,22 +6907,22 @@
         <v>nccushedcang</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D96" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedebce</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedebce</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>209</v>
@@ -6934,22 +6949,22 @@
         <v>nccushedebce</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D97" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedells</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedells</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>210</v>
@@ -6976,22 +6991,22 @@
         <v>nccushedells</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D98" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedeles</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedeles</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>211</v>
@@ -7018,22 +7033,22 @@
         <v>nccushedeles</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D99" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedgots</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedgots</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>212</v>
@@ -7060,22 +7075,22 @@
         <v>nccushedgots</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D100" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedwell</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedwell</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>233</v>
@@ -7087,37 +7102,37 @@
         <v>51</v>
       </c>
       <c r="I100" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="J100" s="6" t="str">
+        <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
+        <v>nccu</v>
+      </c>
+      <c r="K100" s="6" t="str">
+        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
+        <v>nccushed</v>
+      </c>
+      <c r="L100" s="6" t="str">
+        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
+        <v>nccushedwell</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="J100" s="6" t="str">
-        <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
-        <v>nccu</v>
-      </c>
-      <c r="K100" s="6" t="str">
-        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>nccushed</v>
-      </c>
-      <c r="L100" s="6" t="str">
-        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>nccushedwell</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>662</v>
-      </c>
       <c r="D101" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedidx</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedidx</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>213</v>
@@ -7129,7 +7144,7 @@
         <v>51</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J101" s="6" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
@@ -7144,22 +7159,22 @@
         <v>nccushedidx</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D102" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedlice</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedlice</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>219</v>
@@ -7186,22 +7201,22 @@
         <v>nccushedlice</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D103" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedloon</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedloon</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>226</v>
@@ -7228,22 +7243,22 @@
         <v>nccushedloon</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D104" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedlont</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedlont</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>223</v>
@@ -7270,22 +7285,22 @@
         <v>nccushedlont</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D105" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedmary</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedmary</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>205</v>
@@ -7312,22 +7327,22 @@
         <v>nccushedmary</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D106" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedmeon</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedmeon</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>214</v>
@@ -7354,22 +7369,22 @@
         <v>nccushedmeon</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D107" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedmioz</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedmioz</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>215</v>
@@ -7396,22 +7411,22 @@
         <v>nccushedmioz</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D108" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedmion</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedmion</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>216</v>
@@ -7438,22 +7453,22 @@
         <v>nccushedmion</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D109" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedhist</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedhist</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>217</v>
@@ -7465,7 +7480,7 @@
         <v>51</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J109" s="6" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
@@ -7480,25 +7495,25 @@
         <v>nccushedhist</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D110" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedncon</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedncon</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>1</v>
@@ -7522,22 +7537,22 @@
         <v>nccushedncon</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D111" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedonby</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedonby</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>218</v>
@@ -7564,22 +7579,22 @@
         <v>nccushedonby</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D112" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedonok</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedonok</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>220</v>
@@ -7606,22 +7621,22 @@
         <v>nccushedonok</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D113" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedrece</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedrece</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>222</v>
@@ -7648,22 +7663,22 @@
         <v>nccushedrece</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D114" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedresk</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedresk</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>224</v>
@@ -7690,22 +7705,22 @@
         <v>nccushedresk</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D115" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedsels</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedsels</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>225</v>
@@ -7732,22 +7747,22 @@
         <v>nccushedsels</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D116" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedstks</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedstks</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>227</v>
@@ -7774,22 +7789,22 @@
         <v>nccushedstks</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D117" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedstce</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedstce</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>228</v>
@@ -7816,22 +7831,22 @@
         <v>nccushedstce</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D118" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedstar</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedstar</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>229</v>
@@ -7858,22 +7873,22 @@
         <v>nccushedstar</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D119" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedsyce</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedsyce</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>230</v>
@@ -7900,22 +7915,22 @@
         <v>nccushedsyce</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D120" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedthon</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedthon</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>231</v>
@@ -7942,22 +7957,22 @@
         <v>nccushedthon</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D121" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>nccu;nccushed;nccushedtrg)</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>nccu:nccushed:nccushedtrg)</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>232</v>
@@ -7984,25 +7999,25 @@
         <v>nccushedtrg)</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D122" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
         <v>ncsu</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>2</v>
@@ -8022,22 +8037,22 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D123" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsuaacr</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsuaacr</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>142</v>
@@ -8062,22 +8077,22 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D124" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsuboot</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsuboot</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>145</v>
@@ -8102,22 +8117,22 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D125" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsucirn</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsucirn</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>161</v>
@@ -8142,22 +8157,22 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D126" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsud.hl</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsud.hl</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>151</v>
@@ -8182,22 +8197,22 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D127" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsudesn</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsudesn</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>150</v>
@@ -8222,22 +8237,22 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D128" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsugamn</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsugamn</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>172</v>
@@ -8262,22 +8277,22 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D129" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsuglbr</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsuglbr</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>173</v>
@@ -8302,22 +8317,22 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D130" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsuhiln</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsuhiln</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>257</v>
@@ -8342,25 +8357,25 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D131" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsuhunt</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsuhunt</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>2</v>
@@ -8382,22 +8397,22 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D132" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsumat.</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsumat.</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>274</v>
@@ -8422,22 +8437,22 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D133" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsumetc</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsumetc</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>188</v>
@@ -8462,22 +8477,22 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D134" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsunats</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsunats</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>235</v>
@@ -8502,22 +8517,22 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D135" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsuoffst</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsuoffst</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>159</v>
@@ -8526,7 +8541,7 @@
         <v>2</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I135" s="4"/>
       <c r="J135" s="6" t="str">
@@ -8542,22 +8557,22 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D136" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsuonls</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsuonls</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>236</v>
@@ -8582,22 +8597,22 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D137" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsuprae</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsuprae</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>252</v>
@@ -8622,22 +8637,22 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D138" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsusatg</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsusatg</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>253</v>
@@ -8662,22 +8677,22 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D139" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsuspes</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsuspes</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>255</v>
@@ -8702,22 +8717,22 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D140" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsutex</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsutex</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>258</v>
@@ -8726,7 +8741,7 @@
         <v>2</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="6" t="str">
@@ -8742,22 +8757,22 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D141" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>ncsu;ncsuvete</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>ncsu:ncsuvete</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>267</v>
@@ -8782,25 +8797,25 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D142" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
         <v>trln</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>6</v>
@@ -8820,22 +8835,22 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B143" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="D143" s="6" t="str">
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>trln:trlnsp</v>
+      </c>
+      <c r="E143" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="D143" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>trln;trlnsp</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>635</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>259</v>
@@ -8844,7 +8859,7 @@
         <v>6</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I143" s="4"/>
       <c r="J143" s="6" t="str">
@@ -8862,28 +8877,30 @@
     </row>
     <row r="144" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>464</v>
+        <v>584</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="D144" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncarty</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>3</v>
+        <v>340</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H144" s="4"/>
+      <c r="H144" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="I144" s="4"/>
       <c r="J144" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
@@ -8891,7 +8908,7 @@
       </c>
       <c r="K144" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v/>
+        <v>uncarty</v>
       </c>
       <c r="L144" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -8900,29 +8917,29 @@
     </row>
     <row r="145" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D145" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncarty</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:unccarr</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>340</v>
+        <v>732</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>141</v>
+        <v>277</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>99</v>
+        <v>733</v>
       </c>
       <c r="I145" s="4"/>
       <c r="J145" s="4" t="str">
@@ -8931,7 +8948,7 @@
       </c>
       <c r="K145" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncarty</v>
+        <v>unccarr</v>
       </c>
       <c r="L145" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -8940,29 +8957,29 @@
     </row>
     <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D146" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;unccarr</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:unccarn</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>359</v>
+        <v>734</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>277</v>
+        <v>679</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>100</v>
+        <v>735</v>
       </c>
       <c r="I146" s="4"/>
       <c r="J146" s="4" t="str">
@@ -8971,7 +8988,7 @@
       </c>
       <c r="K146" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>unccarr</v>
+        <v>unccarn</v>
       </c>
       <c r="L146" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -8980,63 +8997,65 @@
     </row>
     <row r="147" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>101</v>
+        <v>710</v>
       </c>
       <c r="D147" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;unccarn</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>376</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncdavy:uncdavf</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>709</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>681</v>
+        <v>147</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I147" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>710</v>
+      </c>
       <c r="J147" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
       <c r="K147" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>unccarn</v>
+        <v>uncdavy</v>
       </c>
       <c r="L147" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v/>
+        <v>uncdavf</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D148" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncdavy</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncdavy</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>338</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>3</v>
@@ -9060,149 +9079,143 @@
     </row>
     <row r="149" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>589</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>712</v>
+        <v>103</v>
       </c>
       <c r="D149" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncdavy;uncdavf</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>711</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncdoch</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>353</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I149" s="4" t="s">
-        <v>712</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="I149" s="4"/>
       <c r="J149" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
       <c r="K149" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncdavy</v>
+        <v>uncdoch</v>
       </c>
       <c r="L149" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>uncdavf</v>
+        <v/>
       </c>
     </row>
     <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>714</v>
+        <v>590</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>713</v>
+        <v>104</v>
       </c>
       <c r="D150" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncdavy;uncdavglo</v>
-      </c>
-      <c r="E150" s="14" t="s">
-        <v>716</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncelek</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>364</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>156</v>
+        <v>681</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>713</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I150" s="4"/>
       <c r="J150" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
       <c r="K150" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncdavy</v>
+        <v>uncelek</v>
       </c>
       <c r="L150" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>uncdavglo</v>
+        <v/>
       </c>
     </row>
     <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>722</v>
+        <v>591</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D151" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncdavy;uncdavdoc</v>
-      </c>
-      <c r="E151" s="14" t="s">
-        <v>715</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncelee</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>365</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I151" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="I151" s="4"/>
       <c r="J151" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
       <c r="K151" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncdavy</v>
+        <v>uncelee</v>
       </c>
       <c r="L151" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>uncdavdoc</v>
+        <v/>
       </c>
     </row>
     <row r="152" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="D152" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncdavy;uncdavmap</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncdavy:uncdavglo</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>3</v>
@@ -9211,7 +9224,7 @@
         <v>102</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="J152" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
@@ -9223,70 +9236,68 @@
       </c>
       <c r="L152" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>uncdavmap</v>
+        <v>uncdavglo</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>720</v>
+        <v>592</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="D153" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncdavy;uncdavref</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncgloy</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>719</v>
+        <v>359</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>148</v>
+        <v>279</v>
       </c>
       <c r="G153" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I153" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="I153" s="4"/>
       <c r="J153" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
       <c r="K153" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncdavy</v>
+        <v>uncgloy</v>
       </c>
       <c r="L153" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>uncdavref</v>
+        <v/>
       </c>
     </row>
     <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D154" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncdavy;uncstor</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncdavy:uncdavdoc</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>3</v>
@@ -9295,7 +9306,7 @@
         <v>102</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="J154" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
@@ -9307,34 +9318,34 @@
       </c>
       <c r="L154" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>uncstor</v>
+        <v>uncdavdoc</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D155" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncdoch</v>
-      </c>
-      <c r="E155" s="12" t="s">
-        <v>353</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncgrar</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>162</v>
+        <v>281</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I155" s="4"/>
       <c r="J155" s="4" t="str">
@@ -9343,7 +9354,7 @@
       </c>
       <c r="K155" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncdoch</v>
+        <v>uncgrar</v>
       </c>
       <c r="L155" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -9352,29 +9363,29 @@
     </row>
     <row r="156" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>592</v>
+        <v>721</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D156" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncelek</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>365</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:unchsl</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>683</v>
+        <v>726</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I156" s="4"/>
       <c r="J156" s="4" t="str">
@@ -9383,7 +9394,7 @@
       </c>
       <c r="K156" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncelek</v>
+        <v>unchsl</v>
       </c>
       <c r="L156" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -9391,70 +9402,70 @@
       </c>
     </row>
     <row r="157" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>593</v>
+      <c r="A157" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>728</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D157" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncelee</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>163</v>
+        <v>729</v>
+      </c>
+      <c r="D157" s="6" t="str">
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncherb</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="F157" s="18" t="s">
+        <v>731</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>105</v>
+        <v>729</v>
       </c>
       <c r="I157" s="4"/>
-      <c r="J157" s="4" t="str">
+      <c r="J157" s="6" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
-      <c r="K157" s="4" t="str">
-        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncelee</v>
-      </c>
-      <c r="L157" s="4" t="str">
+      <c r="K157" s="6" t="str">
+        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
+        <v>uncherb</v>
+      </c>
+      <c r="L157" s="6" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
         <v/>
       </c>
     </row>
     <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>594</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D158" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncgloy</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:unchigy</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I158" s="4"/>
       <c r="J158" s="4" t="str">
@@ -9463,7 +9474,7 @@
       </c>
       <c r="K158" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncgloy</v>
+        <v>unchigy</v>
       </c>
       <c r="L158" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -9472,29 +9483,29 @@
     </row>
     <row r="159" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>107</v>
+      <c r="C159" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="D159" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncgrar</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncinfy</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>281</v>
+        <v>186</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H159" s="4" t="s">
-        <v>107</v>
+      <c r="H159" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="I159" s="4"/>
       <c r="J159" s="4" t="str">
@@ -9503,7 +9514,7 @@
       </c>
       <c r="K159" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncgrar</v>
+        <v>uncinfy</v>
       </c>
       <c r="L159" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -9512,69 +9523,69 @@
     </row>
     <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D160" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;unchsl</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>728</v>
+        <v>462</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C160" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D160" s="6" t="str">
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:unckefl</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H160" s="4" t="s">
-        <v>108</v>
+      <c r="H160" s="15" t="s">
+        <v>630</v>
       </c>
       <c r="I160" s="4"/>
-      <c r="J160" s="4" t="str">
+      <c r="J160" s="6" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
-      <c r="K160" s="4" t="str">
-        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>unchsl</v>
-      </c>
-      <c r="L160" s="4" t="str">
+      <c r="K160" s="6" t="str">
+        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
+        <v>unckefl</v>
+      </c>
+      <c r="L160" s="6" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
         <v/>
       </c>
     </row>
     <row r="161" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>596</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D161" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;unchigy</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:unckeny</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>174</v>
+        <v>682</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I161" s="4"/>
       <c r="J161" s="4" t="str">
@@ -9583,7 +9594,7 @@
       </c>
       <c r="K161" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>unchigy</v>
+        <v>unckeny</v>
       </c>
       <c r="L161" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -9592,29 +9603,29 @@
     </row>
     <row r="162" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>597</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D162" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncinfy</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:unclaty</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c r="G162" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H162" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I162" s="4"/>
       <c r="J162" s="4" t="str">
@@ -9623,7 +9634,7 @@
       </c>
       <c r="K162" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncinfy</v>
+        <v>unclaty</v>
       </c>
       <c r="L162" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -9632,69 +9643,69 @@
     </row>
     <row r="163" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="D163" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;unckefl</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>278</v>
+        <v>462</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D163" s="4" t="str">
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:unclawy</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>673</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H163" s="15" t="s">
-        <v>632</v>
+      <c r="H163" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="I163" s="4"/>
-      <c r="J163" s="6" t="str">
+      <c r="J163" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
-      <c r="K163" s="6" t="str">
-        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>unckefl</v>
-      </c>
-      <c r="L163" s="6" t="str">
+      <c r="K163" s="4" t="str">
+        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
+        <v>unclawy</v>
+      </c>
+      <c r="L163" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
         <v/>
       </c>
     </row>
     <row r="164" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D164" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;unckeny</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:unclgby</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I164" s="4"/>
       <c r="J164" s="4" t="str">
@@ -9703,7 +9714,7 @@
       </c>
       <c r="K164" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>unckeny</v>
+        <v>unclgby</v>
       </c>
       <c r="L164" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -9712,29 +9723,29 @@
     </row>
     <row r="165" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="D165" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;unclaty</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:unclibr</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>284</v>
+        <v>684</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="I165" s="4"/>
       <c r="J165" s="4" t="str">
@@ -9743,7 +9754,7 @@
       </c>
       <c r="K165" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>unclaty</v>
+        <v>unclibr</v>
       </c>
       <c r="L165" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -9752,29 +9763,29 @@
     </row>
     <row r="166" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D166" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;unclawy</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncmant</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>675</v>
+        <v>268</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I166" s="4"/>
       <c r="J166" s="4" t="str">
@@ -9783,7 +9794,7 @@
       </c>
       <c r="K166" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>unclawy</v>
+        <v>uncmant</v>
       </c>
       <c r="L166" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -9792,109 +9803,113 @@
     </row>
     <row r="167" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>601</v>
+        <v>462</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>702</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D167" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;unclgby</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>375</v>
+        <v>115</v>
+      </c>
+      <c r="D167" s="6" t="str">
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncwil:uncwilman</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>694</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>685</v>
+        <v>268</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4" t="str">
+        <v>696</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J167" s="6" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
-      <c r="K167" s="4" t="str">
-        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>unclgby</v>
-      </c>
-      <c r="L167" s="4" t="str">
-        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v/>
+      <c r="K167" s="6" t="str">
+        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
+        <v>uncwil</v>
+      </c>
+      <c r="L167" s="6" t="str">
+        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
+        <v>uncwilman</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>602</v>
+        <v>719</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>13</v>
+        <v>716</v>
       </c>
       <c r="D168" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;unclibr</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>364</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncdavy:uncdavmap</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>715</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>686</v>
+        <v>175</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I168" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>716</v>
+      </c>
       <c r="J168" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
       <c r="K168" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>unclibr</v>
+        <v>uncdavy</v>
       </c>
       <c r="L168" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v/>
+        <v>uncdavmap</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D169" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncmant</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncmary</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I169" s="4"/>
       <c r="J169" s="4" t="str">
@@ -9903,7 +9918,7 @@
       </c>
       <c r="K169" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncmant</v>
+        <v>uncmary</v>
       </c>
       <c r="L169" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -9912,29 +9927,29 @@
     </row>
     <row r="170" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D170" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncmary</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncmedr</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I170" s="4"/>
       <c r="J170" s="4" t="str">
@@ -9943,7 +9958,7 @@
       </c>
       <c r="K170" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncmary</v>
+        <v>uncmedr</v>
       </c>
       <c r="L170" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -9952,23 +9967,23 @@
     </row>
     <row r="171" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D171" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncmedr</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncmedr:uncmedrmeks</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>3</v>
@@ -9976,7 +9991,9 @@
       <c r="H171" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I171" s="4"/>
+      <c r="I171" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="J171" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
@@ -9987,28 +10004,28 @@
       </c>
       <c r="L171" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v/>
+        <v>uncmedrmeks</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D172" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncmedr;uncmedrmeks</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncmedr:uncmedrmets</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>3</v>
@@ -10017,7 +10034,7 @@
         <v>117</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J172" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
@@ -10029,70 +10046,68 @@
       </c>
       <c r="L172" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>uncmedrmeks</v>
+        <v>uncmedrmets</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D173" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncmedr;uncmedrmets</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncmusy</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I173" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="I173" s="4"/>
       <c r="J173" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
       <c r="K173" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncmedr</v>
+        <v>uncmusy</v>
       </c>
       <c r="L173" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>uncmedrmets</v>
+        <v/>
       </c>
     </row>
     <row r="174" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D174" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncmusy</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncmusy:uncmusymult</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>193</v>
+        <v>685</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>3</v>
@@ -10100,7 +10115,9 @@
       <c r="H174" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I174" s="4"/>
+      <c r="I174" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="J174" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
@@ -10111,76 +10128,74 @@
       </c>
       <c r="L174" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v/>
+        <v>uncmusymult</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D175" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncmusy;uncmusymult</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncnory</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>687</v>
+        <v>283</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I175" s="4" t="s">
-        <v>134</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="I175" s="4"/>
       <c r="J175" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
       <c r="K175" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncmusy</v>
+        <v>uncnory</v>
       </c>
       <c r="L175" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>uncmusymult</v>
+        <v/>
       </c>
     </row>
     <row r="176" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>119</v>
+        <v>609</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="D176" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncnory</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncnorn</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H176" s="4" t="s">
-        <v>119</v>
+      <c r="H176" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="I176" s="4"/>
       <c r="J176" s="4" t="str">
@@ -10189,7 +10204,7 @@
       </c>
       <c r="K176" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncnory</v>
+        <v>uncnorn</v>
       </c>
       <c r="L176" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -10198,20 +10213,20 @@
     </row>
     <row r="177" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>611</v>
+        <v>462</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>701</v>
       </c>
       <c r="C177" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D177" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncnorn</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>345</v>
+      <c r="D177" s="6" t="str">
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncwil:uncwilncc</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>693</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>272</v>
@@ -10220,35 +10235,37 @@
         <v>3</v>
       </c>
       <c r="H177" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="I177" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4" t="str">
+      <c r="J177" s="6" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
-      <c r="K177" s="4" t="str">
-        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncnorn</v>
-      </c>
-      <c r="L177" s="4" t="str">
-        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v/>
+      <c r="K177" s="6" t="str">
+        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
+        <v>uncwil</v>
+      </c>
+      <c r="L177" s="6" t="str">
+        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
+        <v>uncwilncc</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D178" s="10" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncodum</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncodum</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>358</v>
@@ -10260,7 +10277,7 @@
         <v>3</v>
       </c>
       <c r="H178" s="15" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I178" s="8"/>
       <c r="J178" s="10" t="str">
@@ -10278,20 +10295,20 @@
     </row>
     <row r="179" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D179" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncofft</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncofft</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>280</v>
@@ -10318,17 +10335,17 @@
     </row>
     <row r="180" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D180" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncpark</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncpark</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>350</v>
@@ -10358,17 +10375,17 @@
     </row>
     <row r="181" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D181" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncplay</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncplay</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>349</v>
@@ -10398,69 +10415,71 @@
     </row>
     <row r="182" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>614</v>
+        <v>705</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>124</v>
+        <v>723</v>
       </c>
       <c r="D182" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncrarn</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncul:unculpop</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>347</v>
+        <v>724</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I182" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>723</v>
+      </c>
       <c r="J182" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
       <c r="K182" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncrarn</v>
+        <v>uncul</v>
       </c>
       <c r="L182" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v/>
+        <v>unculpop</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D183" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncschy</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncrarn</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I183" s="4"/>
       <c r="J183" s="4" t="str">
@@ -10469,7 +10488,7 @@
       </c>
       <c r="K183" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncschy</v>
+        <v>uncrarn</v>
       </c>
       <c r="L183" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -10478,109 +10497,113 @@
     </row>
     <row r="184" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>616</v>
+        <v>462</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>703</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D184" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncscix</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>368</v>
+        <v>124</v>
+      </c>
+      <c r="D184" s="6" t="str">
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncwil:uncwilrbc</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>695</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I184" s="4"/>
-      <c r="J184" s="4" t="str">
+        <v>696</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J184" s="6" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
-      <c r="K184" s="4" t="str">
-        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncscix</v>
-      </c>
-      <c r="L184" s="4" t="str">
-        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v/>
+      <c r="K184" s="6" t="str">
+        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
+        <v>uncwil</v>
+      </c>
+      <c r="L184" s="6" t="str">
+        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
+        <v>uncwilrbc</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>620</v>
+        <v>718</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D185" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncsouz</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncdavy:uncdavref</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>369</v>
+        <v>717</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>269</v>
+        <v>148</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I185" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="J185" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
       <c r="K185" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncsouz</v>
+        <v>uncdavy</v>
       </c>
       <c r="L185" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v/>
+        <v>uncdavref</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D186" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncsoun</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncschy</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I186" s="4"/>
       <c r="J186" s="4" t="str">
@@ -10589,7 +10612,7 @@
       </c>
       <c r="K186" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncsoun</v>
+        <v>uncschy</v>
       </c>
       <c r="L186" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -10598,29 +10621,29 @@
     </row>
     <row r="187" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D187" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncstoy</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncscix</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>256</v>
+        <v>144</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I187" s="4"/>
       <c r="J187" s="4" t="str">
@@ -10629,7 +10652,7 @@
       </c>
       <c r="K187" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncstoy</v>
+        <v>uncscix</v>
       </c>
       <c r="L187" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -10638,29 +10661,29 @@
     </row>
     <row r="188" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>706</v>
+        <v>618</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D188" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncul</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncsouz</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>688</v>
+        <v>269</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I188" s="4"/>
       <c r="J188" s="4" t="str">
@@ -10669,7 +10692,7 @@
       </c>
       <c r="K188" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncul</v>
+        <v>uncsouz</v>
       </c>
       <c r="L188" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -10678,71 +10701,71 @@
     </row>
     <row r="189" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>707</v>
+        <v>462</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>699</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="D189" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncul;unculpop</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>726</v>
+        <v>127</v>
+      </c>
+      <c r="D189" s="6" t="str">
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncwil:uncwilsfc</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>691</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>131</v>
+        <v>696</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="J189" s="4" t="str">
+        <v>127</v>
+      </c>
+      <c r="J189" s="6" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
-      <c r="K189" s="4" t="str">
-        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncul</v>
-      </c>
-      <c r="L189" s="4" t="str">
-        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>unculpop</v>
+      <c r="K189" s="6" t="str">
+        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
+        <v>uncwil</v>
+      </c>
+      <c r="L189" s="6" t="str">
+        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
+        <v>uncwilsfc</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>708</v>
+        <v>615</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="D190" s="4" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncarchives</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncsoun</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G190" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I190" s="4"/>
       <c r="J190" s="4" t="str">
@@ -10751,7 +10774,7 @@
       </c>
       <c r="K190" s="4" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncarchives</v>
+        <v>uncsoun</v>
       </c>
       <c r="L190" s="4" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -10760,31 +10783,33 @@
     </row>
     <row r="191" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>698</v>
+        <v>128</v>
       </c>
       <c r="D191" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncwil</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncwil:uncwilshc</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>727</v>
+        <v>692</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="G191" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="I191" s="4"/>
+        <v>696</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="J191" s="6" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
@@ -10795,235 +10820,225 @@
       </c>
       <c r="L191" s="6" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v/>
+        <v>uncwilshc</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>704</v>
+        <v>462</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D192" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncwil;uncwilman</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>696</v>
+        <v>129</v>
+      </c>
+      <c r="D192" s="4" t="str">
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncstoy</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G192" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="I192" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J192" s="6" t="str">
+        <v>129</v>
+      </c>
+      <c r="I192" s="4"/>
+      <c r="J192" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
-      <c r="K192" s="6" t="str">
-        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncwil</v>
-      </c>
-      <c r="L192" s="6" t="str">
-        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>uncwilman</v>
+      <c r="K192" s="4" t="str">
+        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
+        <v>uncstoy</v>
+      </c>
+      <c r="L192" s="4" t="str">
+        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
+        <v/>
       </c>
     </row>
     <row r="193" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>703</v>
+        <v>462</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>707</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D193" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncwil;uncwilncc</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>695</v>
+        <v>130</v>
+      </c>
+      <c r="D193" s="4" t="str">
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncdavy:uncstor</v>
+      </c>
+      <c r="E193" s="14" t="s">
+        <v>722</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>272</v>
+        <v>154</v>
       </c>
       <c r="G193" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>698</v>
+        <v>102</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J193" s="6" t="str">
+        <v>130</v>
+      </c>
+      <c r="J193" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
-      <c r="K193" s="6" t="str">
-        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncwil</v>
-      </c>
-      <c r="L193" s="6" t="str">
-        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>uncwilncc</v>
+      <c r="K193" s="4" t="str">
+        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
+        <v>uncdavy</v>
+      </c>
+      <c r="L193" s="4" t="str">
+        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
+        <v>uncstor</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>705</v>
+        <v>462</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D194" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncwil;uncwilrbc</v>
-      </c>
-      <c r="E194" s="7" t="s">
-        <v>697</v>
+        <v>3</v>
+      </c>
+      <c r="D194" s="4" t="str">
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G194" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H194" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="I194" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J194" s="6" t="str">
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
-      <c r="K194" s="6" t="str">
-        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncwil</v>
-      </c>
-      <c r="L194" s="6" t="str">
-        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>uncwilrbc</v>
+      <c r="K194" s="4" t="str">
+        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
+        <v/>
+      </c>
+      <c r="L194" s="4" t="str">
+        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
+        <v/>
       </c>
     </row>
     <row r="195" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>701</v>
+        <v>462</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>704</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D195" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncwil;uncwilsfc</v>
-      </c>
-      <c r="E195" s="7" t="s">
-        <v>693</v>
+        <v>131</v>
+      </c>
+      <c r="D195" s="4" t="str">
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncul</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>269</v>
+        <v>686</v>
       </c>
       <c r="G195" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="I195" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J195" s="6" t="str">
+        <v>131</v>
+      </c>
+      <c r="I195" s="4"/>
+      <c r="J195" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
-      <c r="K195" s="6" t="str">
-        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncwil</v>
-      </c>
-      <c r="L195" s="6" t="str">
-        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>uncwilsfc</v>
+      <c r="K195" s="4" t="str">
+        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
+        <v>uncul</v>
+      </c>
+      <c r="L195" s="4" t="str">
+        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
+        <v/>
       </c>
     </row>
     <row r="196" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>702</v>
+        <v>462</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>706</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D196" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncwil;uncwilshc</v>
-      </c>
-      <c r="E196" s="7" t="s">
-        <v>694</v>
+        <v>21</v>
+      </c>
+      <c r="D196" s="4" t="str">
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncarchives</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G196" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="I196" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J196" s="6" t="str">
+        <v>21</v>
+      </c>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4" t="str">
         <f>INDEX(locdata[hierarchy level code],MATCH(locdata[L1],locdata[full hierarchy display],0))</f>
         <v>unc</v>
       </c>
-      <c r="K196" s="6" t="str">
-        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncwil</v>
-      </c>
-      <c r="L196" s="6" t="str">
-        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
-        <v>uncwilshc</v>
+      <c r="K196" s="4" t="str">
+        <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
+        <v>uncarchives</v>
+      </c>
+      <c r="L196" s="4" t="str">
+        <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
+        <v/>
       </c>
     </row>
     <row r="197" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D197" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncwil;uncwilar</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncwil:uncwilar</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>271</v>
@@ -11032,7 +11047,7 @@
         <v>3</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I197" s="4" t="s">
         <v>21</v>
@@ -11051,30 +11066,30 @@
       </c>
     </row>
     <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="6" t="s">
-        <v>464</v>
+      <c r="A198" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>730</v>
+        <v>697</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>731</v>
+        <v>696</v>
       </c>
       <c r="D198" s="6" t="str">
-        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",";"),locdata[C2],IF(locdata[C3]="","",";"),locdata[C3])</f>
-        <v>unc;uncherb</v>
+        <f>CONCATENATE(locdata[C1],IF(locdata[C2]="","",":"),locdata[C2],IF(locdata[C3]="","",":"),locdata[C3])</f>
+        <v>unc:uncwil</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="F198" s="18" t="s">
-        <v>733</v>
+        <v>689</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>725</v>
       </c>
       <c r="G198" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>731</v>
+        <v>696</v>
       </c>
       <c r="I198" s="4"/>
       <c r="J198" s="6" t="str">
@@ -11083,7 +11098,7 @@
       </c>
       <c r="K198" s="6" t="str">
         <f>IF(locdata[L2]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2],locdata[full hierarchy display],0)))</f>
-        <v>uncherb</v>
+        <v>uncwil</v>
       </c>
       <c r="L198" s="6" t="str">
         <f>IF(locdata[L3]="","",INDEX(locdata[hierarchy level code],MATCH(locdata[L1]&amp;" &gt; "&amp;locdata[L2]&amp;" &gt; "&amp;locdata[L3],locdata[full hierarchy display],0)))</f>
@@ -11092,7 +11107,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
